--- a/Horas Extra/2023/4.abril/4.abrilCampo.xlsx
+++ b/Horas Extra/2023/4.abril/4.abrilCampo.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
   <si>
     <t>FECHA</t>
   </si>
@@ -230,6 +230,42 @@
   </si>
   <si>
     <t>23/03/2023</t>
+  </si>
+  <si>
+    <t>24/03/2023</t>
+  </si>
+  <si>
+    <t>28/03/2023</t>
+  </si>
+  <si>
+    <t>27/03/2023</t>
+  </si>
+  <si>
+    <t>26/03/2023</t>
+  </si>
+  <si>
+    <t>25/03/2023</t>
+  </si>
+  <si>
+    <t>Diagnostico y reemplazo de componente transformador para energizar la parte de control  para un  VSD Yaskawa</t>
+  </si>
+  <si>
+    <t>Diagnostico de cambio de fecha Upgrade Ecopetrol, cambio de firmware de la panel view 600 y PLC, validación general de la aplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizacion de 5 equipos CILA2s Pantalla + PLC, a Versión 1.4.6 CL-24 Caño Sur,explicación a personal de Slacol de procedimiento de actualización de la aplicación. </t>
+  </si>
+  <si>
+    <t>Viaje Rubiales-Villavicencio Villavicencio-Bogotá</t>
+  </si>
+  <si>
+    <t>29/03/2023</t>
+  </si>
+  <si>
+    <t>Actualización de Dos Equipos 7" 5G CL-219 y CL- 397,  CL-397 cambio de IP de todo el equipo por posición del pozo y validación funcional de la aplicación,restablecer comunicación CL-199 radio Enlace Claro</t>
+  </si>
+  <si>
+    <t>Diagostico de comunicación CL-397, configuración preliminar del equipo y validación de Scada SCC, CL117 RB-117 Sincronización de VSD con el PLC por bloqueo interno de la tarjeta Ethernet del VSD, Se normalizó comunicación con Scada</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1007,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1121,36 +1157,126 @@
     <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1163,96 +1289,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,30 +1310,54 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,44 +1367,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1795,8 +1825,8 @@
   </sheetPr>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -1813,80 +1843,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="11.25" customHeight="1">
-      <c r="A1" s="78"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="101" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="93" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="94"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="3" spans="1:23" ht="11.25" customHeight="1">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="97" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="98"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="91" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="96"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
     </row>
     <row r="5" spans="1:23" ht="11.25" customHeight="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="97" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="98"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" spans="1:23" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
     </row>
     <row r="7" spans="1:23" ht="6" customHeight="1" thickBot="1">
       <c r="A7" s="29"/>
@@ -1949,40 +1979,40 @@
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="85" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="69" t="s">
+      <c r="G11" s="73"/>
+      <c r="H11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="95" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1999,7 +2029,7 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A13" s="84"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="38" t="s">
         <v>27</v>
       </c>
@@ -2012,10 +2042,10 @@
       <c r="E13" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2032,25 +2062,25 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" ht="34.799999999999997" customHeight="1">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="133">
+      <c r="B14" s="63">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C14" s="133">
+      <c r="C14" s="63">
         <v>0.25</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="65" t="s">
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="136"/>
+      <c r="G14" s="100"/>
       <c r="H14" s="31">
         <v>50000</v>
       </c>
-      <c r="I14" s="137" t="s">
+      <c r="I14" s="134" t="s">
         <v>54</v>
       </c>
       <c r="J14" s="3"/>
@@ -2068,16 +2098,28 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" ht="27.6" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="37"/>
+    <row r="15" spans="1:23" ht="42.6" customHeight="1">
+      <c r="A15" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C15" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="101"/>
+      <c r="H15" s="31">
+        <v>50000</v>
+      </c>
+      <c r="I15" s="134" t="s">
+        <v>54</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2093,16 +2135,28 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" ht="31.2" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="37"/>
+    <row r="16" spans="1:23" ht="67.8" customHeight="1">
+      <c r="A16" s="133" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="100"/>
+      <c r="H16" s="31">
+        <v>50000</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>54</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2118,16 +2172,28 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" ht="28.8" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="37"/>
+    <row r="17" spans="1:23" ht="45.6" customHeight="1">
+      <c r="A17" s="133" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C17" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="100"/>
+      <c r="H17" s="31">
+        <v>50000</v>
+      </c>
+      <c r="I17" s="134" t="s">
+        <v>54</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2143,16 +2209,28 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" ht="34.200000000000003" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="37"/>
+    <row r="18" spans="1:23" ht="54" customHeight="1">
+      <c r="A18" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C18" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="99"/>
+      <c r="H18" s="31">
+        <v>50000</v>
+      </c>
+      <c r="I18" s="134" t="s">
+        <v>54</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2168,16 +2246,28 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="37"/>
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="66.599999999999994" customHeight="1">
+      <c r="A19" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C19" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="100"/>
+      <c r="H19" s="31">
+        <v>50000</v>
+      </c>
+      <c r="I19" s="134" t="s">
+        <v>54</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2194,15 +2284,27 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="47.4" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="37"/>
+      <c r="A20" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C20" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="100"/>
+      <c r="H20" s="31">
+        <v>50000</v>
+      </c>
+      <c r="I20" s="134" t="s">
+        <v>54</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2224,8 +2326,8 @@
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="97"/>
       <c r="H21" s="31"/>
       <c r="I21" s="37"/>
       <c r="J21" s="3"/>
@@ -2249,8 +2351,8 @@
       <c r="C22" s="61"/>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
       <c r="H22" s="31"/>
       <c r="I22" s="37"/>
       <c r="J22" s="3"/>
@@ -2274,8 +2376,8 @@
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
       <c r="E23" s="61"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="31"/>
       <c r="I23" s="37"/>
       <c r="J23" s="3"/>
@@ -2299,8 +2401,8 @@
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
       <c r="E24" s="61"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="97"/>
       <c r="H24" s="31"/>
       <c r="I24" s="37"/>
       <c r="J24" s="3"/>
@@ -2324,8 +2426,8 @@
       <c r="C25" s="61"/>
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
       <c r="H25" s="31"/>
       <c r="I25" s="37"/>
       <c r="J25" s="3"/>
@@ -2349,8 +2451,8 @@
       <c r="C26" s="61"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="101"/>
       <c r="H26" s="31"/>
       <c r="I26" s="37"/>
       <c r="J26" s="3"/>
@@ -2374,8 +2476,8 @@
       <c r="C27" s="61"/>
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="97"/>
       <c r="H27" s="31"/>
       <c r="I27" s="37"/>
       <c r="J27" s="3"/>
@@ -2399,8 +2501,8 @@
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="31"/>
       <c r="I28" s="37"/>
       <c r="J28" s="3"/>
@@ -2424,8 +2526,8 @@
       <c r="C29" s="61"/>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="106"/>
       <c r="H29" s="31"/>
       <c r="I29" s="37"/>
       <c r="J29" s="3"/>
@@ -2449,8 +2551,8 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="76"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="106"/>
       <c r="H30" s="31">
         <v>0</v>
       </c>
@@ -2481,7 +2583,7 @@
       </c>
       <c r="H31" s="51">
         <f>SUM(H14:H30)</f>
-        <v>50000</v>
+        <v>350000</v>
       </c>
       <c r="I31" s="49"/>
     </row>
@@ -2502,12 +2604,12 @@
         <v>17</v>
       </c>
       <c r="E33" s="53"/>
-      <c r="F33" s="73">
+      <c r="F33" s="103">
         <f>H31</f>
-        <v>50000</v>
-      </c>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
+        <v>350000</v>
+      </c>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
       <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:9" ht="13.8">
@@ -2523,30 +2625,30 @@
     </row>
     <row r="35" spans="1:9" ht="59.25" customHeight="1">
       <c r="A35" s="27"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
       <c r="D35" s="53"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
       <c r="G35" s="53"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
     </row>
     <row r="36" spans="1:9" ht="13.8">
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="67"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="49"/>
-      <c r="E36" s="67" t="s">
+      <c r="E36" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="67"/>
+      <c r="F36" s="102"/>
       <c r="G36" s="53"/>
-      <c r="H36" s="67" t="s">
+      <c r="H36" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="67"/>
+      <c r="I36" s="102"/>
     </row>
     <row r="37" spans="1:9" ht="13.8">
       <c r="A37" s="27"/>
@@ -2595,6 +2697,30 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="A1:B6"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="H11:H13"/>
@@ -2608,30 +2734,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="I11:I13"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2768,8 +2870,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:6" ht="15.6">
-      <c r="C1" s="81"/>
-      <c r="D1" s="128" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="11"/>
@@ -2778,26 +2880,26 @@
       </c>
     </row>
     <row r="2" spans="3:6" ht="15.6">
-      <c r="C2" s="81"/>
-      <c r="D2" s="129"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="15.6">
-      <c r="C3" s="81"/>
-      <c r="D3" s="129"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="117" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="15.6">
-      <c r="C4" s="81"/>
-      <c r="D4" s="130"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="132"/>
+      <c r="F4" s="118"/>
     </row>
     <row r="5" spans="3:6" ht="15.6">
       <c r="C5" s="4" t="s">
@@ -2845,100 +2947,100 @@
       </c>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" s="114">
+      <c r="C10" s="119">
         <v>1</v>
       </c>
-      <c r="D10" s="117"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="120"/>
+      <c r="F10" s="125"/>
     </row>
     <row r="11" spans="3:6">
-      <c r="C11" s="115"/>
-      <c r="D11" s="118"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="121"/>
+      <c r="F11" s="126"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="115"/>
-      <c r="D12" s="118"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="123"/>
       <c r="E12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="121"/>
+      <c r="F12" s="126"/>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="115"/>
-      <c r="D13" s="118"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="121"/>
+      <c r="F13" s="126"/>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="115"/>
-      <c r="D14" s="118"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="121"/>
+      <c r="F14" s="126"/>
     </row>
     <row r="15" spans="3:6" ht="13.8" thickBot="1">
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="127"/>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="114">
+      <c r="C16" s="119">
         <v>2</v>
       </c>
-      <c r="D16" s="117"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="120"/>
+      <c r="F16" s="125"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="C17" s="115"/>
-      <c r="D17" s="118"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="121"/>
+      <c r="F17" s="126"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="C18" s="115"/>
-      <c r="D18" s="118"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="123"/>
       <c r="E18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="121"/>
+      <c r="F18" s="126"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="C19" s="115"/>
-      <c r="D19" s="118"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="121"/>
+      <c r="F19" s="126"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="C20" s="115"/>
-      <c r="D20" s="118"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="121"/>
+      <c r="F20" s="126"/>
     </row>
     <row r="21" spans="2:6" ht="13.8" thickBot="1">
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="20" t="s">
         <v>12</v>
       </c>
@@ -2946,641 +3048,608 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="1"/>
-      <c r="C22" s="114">
+      <c r="C22" s="119">
         <v>3</v>
       </c>
-      <c r="D22" s="117"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="120"/>
+      <c r="F22" s="125"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="C23" s="115"/>
-      <c r="D23" s="118"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="123"/>
       <c r="E23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="121"/>
+      <c r="F23" s="126"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="C24" s="115"/>
-      <c r="D24" s="118"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="123"/>
       <c r="E24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="121"/>
+      <c r="F24" s="126"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="C25" s="115"/>
-      <c r="D25" s="118"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="123"/>
       <c r="E25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="121"/>
+      <c r="F25" s="126"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="C26" s="115"/>
-      <c r="D26" s="118"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="123"/>
       <c r="E26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="121"/>
+      <c r="F26" s="126"/>
     </row>
     <row r="27" spans="2:6" ht="13.8" thickBot="1">
-      <c r="C27" s="125"/>
-      <c r="D27" s="126"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="124"/>
       <c r="E27" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="127"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="C28" s="114">
+      <c r="C28" s="119">
         <v>4</v>
       </c>
-      <c r="D28" s="117"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="120"/>
+      <c r="F28" s="125"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="C29" s="115"/>
-      <c r="D29" s="118"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="123"/>
       <c r="E29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="121"/>
+      <c r="F29" s="126"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="C30" s="115"/>
-      <c r="D30" s="118"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="123"/>
       <c r="E30" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="121"/>
+      <c r="F30" s="126"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="C31" s="115"/>
-      <c r="D31" s="118"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="123"/>
       <c r="E31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="121"/>
+      <c r="F31" s="126"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="115"/>
-      <c r="D32" s="118"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="123"/>
       <c r="E32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="121"/>
+      <c r="F32" s="126"/>
     </row>
     <row r="33" spans="2:6" ht="13.8" thickBot="1">
-      <c r="C33" s="116"/>
-      <c r="D33" s="119"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129"/>
       <c r="E33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="121"/>
+      <c r="F33" s="126"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="9"/>
-      <c r="C34" s="114">
+      <c r="C34" s="119">
         <v>5</v>
       </c>
-      <c r="D34" s="117"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="120"/>
+      <c r="F34" s="125"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="C35" s="115"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="123"/>
       <c r="E35" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="121"/>
+      <c r="F35" s="126"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="C36" s="115"/>
-      <c r="D36" s="118"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="123"/>
       <c r="E36" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="121"/>
+      <c r="F36" s="126"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="C37" s="115"/>
-      <c r="D37" s="118"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="123"/>
       <c r="E37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="121"/>
+      <c r="F37" s="126"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="C38" s="115"/>
-      <c r="D38" s="118"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="123"/>
       <c r="E38" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="121"/>
+      <c r="F38" s="126"/>
     </row>
     <row r="39" spans="2:6" ht="13.8" thickBot="1">
-      <c r="C39" s="116"/>
-      <c r="D39" s="119"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="129"/>
       <c r="E39" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="121"/>
+      <c r="F39" s="126"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="C40" s="114">
+      <c r="C40" s="119">
         <v>6</v>
       </c>
-      <c r="D40" s="117"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="120"/>
+      <c r="F40" s="125"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="C41" s="115"/>
-      <c r="D41" s="118"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="123"/>
       <c r="E41" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="121"/>
+      <c r="F41" s="126"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="C42" s="115"/>
-      <c r="D42" s="118"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="123"/>
       <c r="E42" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="121"/>
+      <c r="F42" s="126"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="C43" s="115"/>
-      <c r="D43" s="118"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="123"/>
       <c r="E43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="121"/>
+      <c r="F43" s="126"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="C44" s="115"/>
-      <c r="D44" s="118"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="123"/>
       <c r="E44" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="121"/>
+      <c r="F44" s="126"/>
     </row>
     <row r="45" spans="2:6" ht="13.8" thickBot="1">
-      <c r="C45" s="116"/>
-      <c r="D45" s="119"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="129"/>
       <c r="E45" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="121"/>
+      <c r="F45" s="126"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="C46" s="114">
+      <c r="C46" s="119">
         <v>7</v>
       </c>
-      <c r="D46" s="117"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="120"/>
+      <c r="F46" s="125"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="C47" s="115"/>
-      <c r="D47" s="118"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="123"/>
       <c r="E47" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="121"/>
+      <c r="F47" s="126"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="C48" s="115"/>
-      <c r="D48" s="118"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="123"/>
       <c r="E48" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="121"/>
+      <c r="F48" s="126"/>
     </row>
     <row r="49" spans="3:6">
-      <c r="C49" s="115"/>
-      <c r="D49" s="118"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="123"/>
       <c r="E49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="121"/>
+      <c r="F49" s="126"/>
     </row>
     <row r="50" spans="3:6">
-      <c r="C50" s="115"/>
-      <c r="D50" s="118"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="123"/>
       <c r="E50" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="121"/>
+      <c r="F50" s="126"/>
     </row>
     <row r="51" spans="3:6" ht="13.8" thickBot="1">
-      <c r="C51" s="116"/>
-      <c r="D51" s="119"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="129"/>
       <c r="E51" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="121"/>
+      <c r="F51" s="126"/>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="114">
+      <c r="C52" s="119">
         <v>8</v>
       </c>
-      <c r="D52" s="117"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="120"/>
+      <c r="F52" s="125"/>
     </row>
     <row r="53" spans="3:6">
-      <c r="C53" s="115"/>
-      <c r="D53" s="118"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="123"/>
       <c r="E53" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="121"/>
+      <c r="F53" s="126"/>
     </row>
     <row r="54" spans="3:6">
-      <c r="C54" s="115"/>
-      <c r="D54" s="118"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="123"/>
       <c r="E54" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="121"/>
+      <c r="F54" s="126"/>
     </row>
     <row r="55" spans="3:6">
-      <c r="C55" s="115"/>
-      <c r="D55" s="118"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="123"/>
       <c r="E55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="121"/>
+      <c r="F55" s="126"/>
     </row>
     <row r="56" spans="3:6">
-      <c r="C56" s="115"/>
-      <c r="D56" s="118"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="123"/>
       <c r="E56" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="121"/>
+      <c r="F56" s="126"/>
     </row>
     <row r="57" spans="3:6" ht="13.8" thickBot="1">
-      <c r="C57" s="116"/>
-      <c r="D57" s="119"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="129"/>
       <c r="E57" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="121"/>
+      <c r="F57" s="126"/>
     </row>
     <row r="58" spans="3:6">
-      <c r="C58" s="114">
+      <c r="C58" s="119">
         <v>9</v>
       </c>
-      <c r="D58" s="117"/>
+      <c r="D58" s="122"/>
       <c r="E58" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="120"/>
+      <c r="F58" s="125"/>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="115"/>
-      <c r="D59" s="118"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="123"/>
       <c r="E59" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="121"/>
+      <c r="F59" s="126"/>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="115"/>
-      <c r="D60" s="118"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="123"/>
       <c r="E60" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="121"/>
+      <c r="F60" s="126"/>
     </row>
     <row r="61" spans="3:6">
-      <c r="C61" s="115"/>
-      <c r="D61" s="118"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="123"/>
       <c r="E61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="121"/>
+      <c r="F61" s="126"/>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="115"/>
-      <c r="D62" s="118"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="123"/>
       <c r="E62" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="121"/>
+      <c r="F62" s="126"/>
     </row>
     <row r="63" spans="3:6" ht="13.8" thickBot="1">
-      <c r="C63" s="116"/>
-      <c r="D63" s="119"/>
+      <c r="C63" s="128"/>
+      <c r="D63" s="129"/>
       <c r="E63" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="121"/>
+      <c r="F63" s="126"/>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="114">
+      <c r="C64" s="119">
         <v>10</v>
       </c>
-      <c r="D64" s="117"/>
+      <c r="D64" s="122"/>
       <c r="E64" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="120"/>
+      <c r="F64" s="125"/>
     </row>
     <row r="65" spans="3:6">
-      <c r="C65" s="115"/>
-      <c r="D65" s="118"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="123"/>
       <c r="E65" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="121"/>
+      <c r="F65" s="126"/>
     </row>
     <row r="66" spans="3:6">
-      <c r="C66" s="115"/>
-      <c r="D66" s="118"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="123"/>
       <c r="E66" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="121"/>
+      <c r="F66" s="126"/>
     </row>
     <row r="67" spans="3:6">
-      <c r="C67" s="115"/>
-      <c r="D67" s="118"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="123"/>
       <c r="E67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="121"/>
+      <c r="F67" s="126"/>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="115"/>
-      <c r="D68" s="118"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="123"/>
       <c r="E68" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="121"/>
+      <c r="F68" s="126"/>
     </row>
     <row r="69" spans="3:6" ht="13.8" thickBot="1">
-      <c r="C69" s="116"/>
-      <c r="D69" s="119"/>
+      <c r="C69" s="128"/>
+      <c r="D69" s="129"/>
       <c r="E69" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="121"/>
+      <c r="F69" s="126"/>
     </row>
     <row r="70" spans="3:6">
-      <c r="C70" s="114">
+      <c r="C70" s="119">
         <v>11</v>
       </c>
-      <c r="D70" s="117"/>
+      <c r="D70" s="122"/>
       <c r="E70" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="120"/>
+      <c r="F70" s="125"/>
     </row>
     <row r="71" spans="3:6">
-      <c r="C71" s="115"/>
-      <c r="D71" s="118"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="123"/>
       <c r="E71" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="121"/>
+      <c r="F71" s="126"/>
     </row>
     <row r="72" spans="3:6">
-      <c r="C72" s="115"/>
-      <c r="D72" s="118"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="123"/>
       <c r="E72" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="121"/>
+      <c r="F72" s="126"/>
     </row>
     <row r="73" spans="3:6">
-      <c r="C73" s="115"/>
-      <c r="D73" s="118"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="123"/>
       <c r="E73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="121"/>
+      <c r="F73" s="126"/>
     </row>
     <row r="74" spans="3:6">
-      <c r="C74" s="115"/>
-      <c r="D74" s="118"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="123"/>
       <c r="E74" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="121"/>
+      <c r="F74" s="126"/>
     </row>
     <row r="75" spans="3:6" ht="13.8" thickBot="1">
-      <c r="C75" s="116"/>
-      <c r="D75" s="119"/>
+      <c r="C75" s="128"/>
+      <c r="D75" s="129"/>
       <c r="E75" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="121"/>
+      <c r="F75" s="126"/>
     </row>
     <row r="76" spans="3:6">
-      <c r="C76" s="114">
+      <c r="C76" s="119">
         <v>12</v>
       </c>
-      <c r="D76" s="117"/>
+      <c r="D76" s="122"/>
       <c r="E76" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="120"/>
+      <c r="F76" s="125"/>
     </row>
     <row r="77" spans="3:6">
-      <c r="C77" s="115"/>
-      <c r="D77" s="118"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="123"/>
       <c r="E77" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F77" s="121"/>
+      <c r="F77" s="126"/>
     </row>
     <row r="78" spans="3:6">
-      <c r="C78" s="115"/>
-      <c r="D78" s="118"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="121"/>
+      <c r="F78" s="126"/>
     </row>
     <row r="79" spans="3:6">
-      <c r="C79" s="115"/>
-      <c r="D79" s="118"/>
+      <c r="C79" s="120"/>
+      <c r="D79" s="123"/>
       <c r="E79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="121"/>
+      <c r="F79" s="126"/>
     </row>
     <row r="80" spans="3:6">
-      <c r="C80" s="115"/>
-      <c r="D80" s="118"/>
+      <c r="C80" s="120"/>
+      <c r="D80" s="123"/>
       <c r="E80" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="121"/>
+      <c r="F80" s="126"/>
     </row>
     <row r="81" spans="3:6" ht="13.8" thickBot="1">
-      <c r="C81" s="116"/>
-      <c r="D81" s="119"/>
+      <c r="C81" s="128"/>
+      <c r="D81" s="129"/>
       <c r="E81" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="121"/>
+      <c r="F81" s="126"/>
     </row>
     <row r="82" spans="3:6">
-      <c r="C82" s="114">
+      <c r="C82" s="119">
         <v>13</v>
       </c>
-      <c r="D82" s="117"/>
+      <c r="D82" s="122"/>
       <c r="E82" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="120"/>
+      <c r="F82" s="125"/>
     </row>
     <row r="83" spans="3:6">
-      <c r="C83" s="115"/>
-      <c r="D83" s="118"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="123"/>
       <c r="E83" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="121"/>
+      <c r="F83" s="126"/>
     </row>
     <row r="84" spans="3:6">
-      <c r="C84" s="115"/>
-      <c r="D84" s="118"/>
+      <c r="C84" s="120"/>
+      <c r="D84" s="123"/>
       <c r="E84" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="121"/>
+      <c r="F84" s="126"/>
     </row>
     <row r="85" spans="3:6">
-      <c r="C85" s="115"/>
-      <c r="D85" s="118"/>
+      <c r="C85" s="120"/>
+      <c r="D85" s="123"/>
       <c r="E85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="121"/>
+      <c r="F85" s="126"/>
     </row>
     <row r="86" spans="3:6">
-      <c r="C86" s="115"/>
-      <c r="D86" s="118"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="123"/>
       <c r="E86" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="121"/>
+      <c r="F86" s="126"/>
     </row>
     <row r="87" spans="3:6" ht="13.8" thickBot="1">
-      <c r="C87" s="116"/>
-      <c r="D87" s="119"/>
+      <c r="C87" s="128"/>
+      <c r="D87" s="129"/>
       <c r="E87" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="121"/>
+      <c r="F87" s="126"/>
     </row>
     <row r="88" spans="3:6">
-      <c r="C88" s="114">
+      <c r="C88" s="119">
         <v>14</v>
       </c>
-      <c r="D88" s="117"/>
+      <c r="D88" s="122"/>
       <c r="E88" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="120"/>
+      <c r="F88" s="125"/>
     </row>
     <row r="89" spans="3:6">
-      <c r="C89" s="115"/>
-      <c r="D89" s="118"/>
+      <c r="C89" s="120"/>
+      <c r="D89" s="123"/>
       <c r="E89" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="121"/>
+      <c r="F89" s="126"/>
     </row>
     <row r="90" spans="3:6">
-      <c r="C90" s="115"/>
-      <c r="D90" s="118"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="123"/>
       <c r="E90" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="121"/>
+      <c r="F90" s="126"/>
     </row>
     <row r="91" spans="3:6">
-      <c r="C91" s="115"/>
-      <c r="D91" s="118"/>
+      <c r="C91" s="120"/>
+      <c r="D91" s="123"/>
       <c r="E91" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="121"/>
+      <c r="F91" s="126"/>
     </row>
     <row r="92" spans="3:6">
-      <c r="C92" s="115"/>
-      <c r="D92" s="118"/>
+      <c r="C92" s="120"/>
+      <c r="D92" s="123"/>
       <c r="E92" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="121"/>
+      <c r="F92" s="126"/>
     </row>
     <row r="93" spans="3:6">
-      <c r="C93" s="122"/>
-      <c r="D93" s="123"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="131"/>
       <c r="E93" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="124"/>
+      <c r="F93" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="F46:F51"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="C52:C57"/>
     <mergeCell ref="C70:C75"/>
     <mergeCell ref="D70:D75"/>
     <mergeCell ref="F70:F75"/>
@@ -3593,6 +3662,39 @@
     <mergeCell ref="C82:C87"/>
     <mergeCell ref="D82:D87"/>
     <mergeCell ref="F82:F87"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="F64:F69"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="F10:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
